--- a/6. Test/Sprint 2/Test report.xlsx
+++ b/6. Test/Sprint 2/Test report.xlsx
@@ -4,22 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="619"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="619" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Revision history" sheetId="39" r:id="rId1"/>
-    <sheet name="Test report Sprint 1" sheetId="34" r:id="rId2"/>
+    <sheet name="Test report Sprint 2" sheetId="34" r:id="rId2"/>
     <sheet name="Parameter" sheetId="40" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test report Sprint 1'!$A$2:$J$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Test report Sprint 2'!$A$2:$J$68</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="223">
   <si>
     <t>TC ID</t>
   </si>
@@ -125,9 +125,6 @@
   </si>
   <si>
     <t>Chau Le</t>
-  </si>
-  <si>
-    <t>Dao Khau</t>
   </si>
   <si>
     <t>Phu Ta</t>
@@ -371,222 +368,28 @@
     <t>TC.19.1</t>
   </si>
   <si>
-    <t>Loại một câu hỏi từ danh sách Available</t>
-  </si>
-  <si>
-    <t>Loại một câu hỏi từ danh sách Available checkbox</t>
-  </si>
-  <si>
-    <t>Loại nhiều câu hỏi từ danh sách Available</t>
-  </si>
-  <si>
-    <t>Loại một câu hỏi từ danh sách Recent</t>
-  </si>
-  <si>
-    <t>Loại một câu hỏi từ danh sách Recent checkbox</t>
-  </si>
-  <si>
-    <t>Loại nhiều câu hỏi từ danh sách Recent</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách 'Available'
-3. Chọn một câu hỏi (không chọn checkbox)
-4. Chọn Hạ câu hỏi
-5. Xác nhận Hạ câu hỏi</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách 'Available'
-3. Chọn một câu hỏi (chọn checkbox)
-4. Chọn Hạ câu hỏi
-5. Xác nhận Hạ câu hỏi</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách 'Available'
-3. Chọn ba câu hỏi (chọn checkbox)
-4. Chọn Hạ câu hỏi
-5. Xác nhận Hạ câu hỏi</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách 'Recent'
-3. Chọn ba câu hỏi
-4. Chọn Hạ câu hỏi
-5. Xác nhận Hạ câu hỏi</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách 'Recent'
-3. Chọn một câu hỏi (chọn checkbox)
-4. Chọn Hạ câu hỏi
-5. Xác nhận Hạ câu hỏi</t>
-  </si>
-  <si>
     <t>TC.20.1</t>
   </si>
   <si>
-    <t>Xóa một câu hỏi</t>
-  </si>
-  <si>
-    <t>TC.20.2</t>
-  </si>
-  <si>
-    <t>Xóa một câu hỏi checkbox</t>
-  </si>
-  <si>
-    <t>TC.20.3</t>
-  </si>
-  <si>
-    <t>Xóa nhiều câu hỏi</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách chưa trả lời
-2. Chọn một câu hỏi bất kì (không chọn check box)
-3. Chọn Xóa ở giao diện chi tiết câu hỏi
-4. Xác nhận xóa</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách chưa trả lời
-2. Chọn một câu hỏi bất kì (chọn check box)
-3. Chọn Xóa ở pop-up hiển thị
-4. Xác nhận xóa</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách chưa trả lời
-2. Chọn ba câu hỏi bất kì (chọn check box)
-3. Chọn Xóa ở pop-up hiển thị
-4. Xác nhận xóa</t>
-  </si>
-  <si>
     <t>TC.21.1</t>
   </si>
   <si>
-    <t>TC.21.2</t>
-  </si>
-  <si>
-    <t>TC.21.3</t>
-  </si>
-  <si>
     <t>TC.22.1</t>
   </si>
   <si>
-    <t>TC.22.2</t>
-  </si>
-  <si>
-    <t>TC.22.3</t>
-  </si>
-  <si>
     <t>TC.23.1</t>
   </si>
   <si>
-    <t>Khôi phục một câu hỏi đã xóa từ danh sách chưa trả lời</t>
-  </si>
-  <si>
-    <t>TC.23.2</t>
-  </si>
-  <si>
-    <t>Khôi phục một câu hỏi đã xóa từ danh sách chưa trả lời check box</t>
-  </si>
-  <si>
-    <t>TC.23.3</t>
-  </si>
-  <si>
-    <t>Khôi phục nhiểu câu hỏi đã xóa từ danh sách chưa trả lời</t>
-  </si>
-  <si>
-    <t>Khôi phục một câu hỏi đã xóa từ danh sách lưu tạm</t>
-  </si>
-  <si>
-    <t>Khôi phục một câu hỏi đã xóa từ danh sách lưu tạm check box</t>
-  </si>
-  <si>
-    <t>Khôi phục nhiểu câu hỏi đã xóa từ danh sách lưu tạm</t>
-  </si>
-  <si>
-    <t>Khôi phục một câu hỏi đã xóa từ danh sách đã trả lời</t>
-  </si>
-  <si>
-    <t>Khôi phục một câu hỏi đã xóa từ danh sách đã trả lời check box</t>
-  </si>
-  <si>
-    <t>Khôi phục nhiểu câu hỏi đã xóa từ danh sách đã trả lời</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách đã xóa
-2. Chọn một câu hỏi (không chọn check box)
-3. Chọn khôi phục câu hỏi
-4. Xác nhận khôi phục</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách đã xóa
-2. Chọn một câu hỏi (chọn check box)
-3. Chọn khôi phục câu hỏi
-4. Xác nhận khôi phục</t>
-  </si>
-  <si>
-    <t>1. Chọn danh sách đã xóa
-2. Chọn 2 câu hỏi (chọn check box)
-3. Chọn khôi phục câu hỏi
-4. Xác nhận khôi phục</t>
-  </si>
-  <si>
     <t>TC.24.1</t>
   </si>
   <si>
-    <t>Khôi phục một câu hỏi từ danh sách Available</t>
-  </si>
-  <si>
     <t>TC.24.2</t>
   </si>
   <si>
-    <t>Khôi phục một câu hỏi từ danh sách Available checkbox</t>
-  </si>
-  <si>
     <t>TC.24.3</t>
   </si>
   <si>
-    <t>Khôi phục nhiều câu hỏi từ danh sách Available</t>
-  </si>
-  <si>
     <t>TC.24.4</t>
-  </si>
-  <si>
-    <t>Khôi phục một câu hỏi từ danh sách Recent</t>
-  </si>
-  <si>
-    <t>TC.24.5</t>
-  </si>
-  <si>
-    <t>Khôi phục một câu hỏi từ danh sách Recent checkbox</t>
-  </si>
-  <si>
-    <t>TC.24.6</t>
-  </si>
-  <si>
-    <t>Khôi phục nhiều câu hỏi từ danh sách Recent</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách 'Delete'
-3. Chọn một câu hỏi (không chọn checkbox)
-4. Chọn khôi phục câu hỏi
-5. Xác nhận khôi phục</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách 'Delete'
-3. Chọn một câu hỏi (chọn checkbox)
-4. Chọn khôi phục câu hỏi
-5. Xác nhận khôi phục</t>
-  </si>
-  <si>
-    <t>1. Chọn bộ từ điển
-2. Chọn danh sách 'Delete'
-3. Chọn 2 câu hỏi (chọn checkbox)
-4. Chọn khôi phục câu hỏi
-5. Xác nhận khôi phục</t>
   </si>
   <si>
     <t>TC.25.1</t>
@@ -608,24 +411,6 @@
     <t>TC.15.2</t>
   </si>
   <si>
-    <t>TC.20.4</t>
-  </si>
-  <si>
-    <t>TC.20.5</t>
-  </si>
-  <si>
-    <t>TC.20.6</t>
-  </si>
-  <si>
-    <t>TC.24.7</t>
-  </si>
-  <si>
-    <t>TC.24.8</t>
-  </si>
-  <si>
-    <t>TC.24.9</t>
-  </si>
-  <si>
     <t>TC.25.2</t>
   </si>
   <si>
@@ -635,12 +420,6 @@
     <t>TC.25.4</t>
   </si>
   <si>
-    <t>TC.25.5</t>
-  </si>
-  <si>
-    <t>TC.25.6</t>
-  </si>
-  <si>
     <t>03.22.2014</t>
   </si>
   <si>
@@ -651,9 +430,6 @@
   </si>
   <si>
     <t>03.25.2014</t>
-  </si>
-  <si>
-    <t>03.23.2014</t>
   </si>
   <si>
     <t>TC.26.1</t>
@@ -892,9 +668,6 @@
 6. Chọn trang 5</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>1. Chọn bộ từ điển
 2. Chọn danh sách hiện tại
 3. Chọn trang 2
@@ -1034,6 +807,69 @@
 4. Điền thông tin số câu hỏi hiển thị mỗi trang
 5. Điền thông tin số trang hiển thị tối đa
 6. Xác nhận</t>
+  </si>
+  <si>
+    <t>TC.34.1</t>
+  </si>
+  <si>
+    <t>1. Chọn cấu hình
+2. Chọn cấu hình mail
+3. Điền thông tin mail
+4. Điền thông tin mật khẩu mail
+5. Điền thông tin host
+6. Điền thông tin Port
+7. Xác nhận thay đổi</t>
+  </si>
+  <si>
+    <t>Hỗ trợ điều chỉnh thông tin liên quan đến mail dùng để gởi câu trả lời cho người đặt câu hỏi</t>
+  </si>
+  <si>
+    <t>TC.35.1</t>
+  </si>
+  <si>
+    <t>Hiển thị danh sách người dùng đã đăng kí tài khoản</t>
+  </si>
+  <si>
+    <t>1. Chọn cấu hình
+2. Chọn cấu hình người dùng</t>
+  </si>
+  <si>
+    <t>TC.36.1</t>
+  </si>
+  <si>
+    <t>Đăng nhập tài khoản quyền admin</t>
+  </si>
+  <si>
+    <t>1. Mở trang web
+2. Điền thông tin tài khoản
+3. Điền thông tin mật khẩu
+4. Đăng nhập</t>
+  </si>
+  <si>
+    <t>TC.36.2</t>
+  </si>
+  <si>
+    <t>Đăng nhập tài khoản quyền user</t>
+  </si>
+  <si>
+    <t>TC.37.1</t>
+  </si>
+  <si>
+    <t>Cho phép điều chỉnh thông tin hệ thống: Database, Username, password</t>
+  </si>
+  <si>
+    <t>1. Chọn cấu hình
+2. Chọn cấu hình hệ thống
+3. Điền thông tin Driver
+4. Điền thông tin Url
+5. Điền thông tin Username
+6. Điền thông tin Password
+7. Xác nhận thay đổi</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1. Chọn bộ từ điển
+2. Chọn danh sách hiện tại
+3. Kiểm tra thông tin</t>
   </si>
 </sst>
 </file>
@@ -1456,6 +1292,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1468,127 +1307,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="44">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <fill>
         <patternFill>
@@ -2093,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2140,11 +1864,11 @@
       <c r="D7" s="15"/>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="43"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
     </row>
     <row r="9" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B9" s="2"/>
@@ -2294,13 +2018,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J111"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E61" sqref="E61"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2319,11 +2043,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="45" t="s">
-        <v>183</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
+      <c r="A1" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
       <c r="D1" s="4"/>
       <c r="E1" s="5"/>
       <c r="F1" s="5"/>
@@ -2370,7 +2094,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>27</v>
@@ -2380,11 +2104,11 @@
         <v>26</v>
       </c>
       <c r="G3" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H3" s="22"/>
       <c r="I3" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J3" s="22"/>
     </row>
@@ -2393,8 +2117,8 @@
         <v>29</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="46" t="s">
-        <v>67</v>
+      <c r="C4" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>27</v>
@@ -2404,11 +2128,11 @@
         <v>26</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H4" s="22"/>
       <c r="I4" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J4" s="22"/>
     </row>
@@ -2418,7 +2142,7 @@
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>27</v>
@@ -2428,11 +2152,11 @@
         <v>26</v>
       </c>
       <c r="G5" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="22"/>
       <c r="I5" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J5" s="22"/>
     </row>
@@ -2442,7 +2166,7 @@
       </c>
       <c r="B6" s="21"/>
       <c r="C6" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>27</v>
@@ -2452,21 +2176,21 @@
         <v>26</v>
       </c>
       <c r="G6" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="22"/>
       <c r="I6" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J6" s="22"/>
     </row>
     <row r="7" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="25" t="s">
-        <v>184</v>
+        <v>126</v>
       </c>
       <c r="B7" s="21"/>
       <c r="C7" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>27</v>
@@ -2476,11 +2200,11 @@
         <v>26</v>
       </c>
       <c r="G7" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="22"/>
       <c r="I7" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J7" s="22"/>
     </row>
@@ -2490,7 +2214,7 @@
       </c>
       <c r="B8" s="21"/>
       <c r="C8" s="22" t="s">
-        <v>185</v>
+        <v>127</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>27</v>
@@ -2504,17 +2228,17 @@
       </c>
       <c r="H8" s="22"/>
       <c r="I8" s="22" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="J8" s="22"/>
     </row>
     <row r="9" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="21" t="s">
-        <v>186</v>
+        <v>128</v>
       </c>
       <c r="B9" s="21"/>
       <c r="C9" s="22" t="s">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>27</v>
@@ -2528,17 +2252,17 @@
       </c>
       <c r="H9" s="22"/>
       <c r="I9" s="22" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="J9" s="22"/>
     </row>
     <row r="10" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>27</v>
@@ -2552,17 +2276,17 @@
       </c>
       <c r="H10" s="22"/>
       <c r="I10" s="22" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J10" s="22"/>
     </row>
     <row r="11" spans="1:10" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="25" t="s">
-        <v>190</v>
+        <v>132</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="46" t="s">
-        <v>67</v>
+      <c r="C11" s="42" t="s">
+        <v>66</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>27</v>
@@ -2576,17 +2300,17 @@
       </c>
       <c r="H11" s="22"/>
       <c r="I11" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J11" s="22"/>
     </row>
     <row r="12" spans="1:10" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12" s="25"/>
       <c r="C12" s="22" t="s">
-        <v>191</v>
+        <v>133</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>27</v>
@@ -2596,21 +2320,21 @@
         <v>26</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H12" s="22"/>
       <c r="I12" s="22" t="s">
-        <v>194</v>
+        <v>136</v>
       </c>
       <c r="J12" s="22"/>
     </row>
     <row r="13" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B13" s="25"/>
       <c r="C13" s="22" t="s">
-        <v>193</v>
+        <v>135</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>27</v>
@@ -2620,21 +2344,21 @@
         <v>26</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H13" s="22"/>
       <c r="I13" s="22" t="s">
-        <v>195</v>
+        <v>137</v>
       </c>
       <c r="J13" s="22"/>
     </row>
     <row r="14" spans="1:10" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="22" t="s">
-        <v>192</v>
+        <v>134</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>27</v>
@@ -2644,21 +2368,21 @@
         <v>26</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H14" s="22"/>
       <c r="I14" s="22" t="s">
-        <v>196</v>
+        <v>138</v>
       </c>
       <c r="J14" s="22"/>
     </row>
     <row r="15" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A15" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="22" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>27</v>
@@ -2668,21 +2392,21 @@
         <v>26</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="22"/>
       <c r="I15" s="22" t="s">
-        <v>201</v>
+        <v>143</v>
       </c>
       <c r="J15" s="22"/>
     </row>
     <row r="16" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="22" t="s">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>27</v>
@@ -2692,21 +2416,21 @@
         <v>26</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H16" s="22"/>
       <c r="I16" s="22" t="s">
-        <v>202</v>
+        <v>144</v>
       </c>
       <c r="J16" s="22"/>
     </row>
     <row r="17" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A17" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="22" t="s">
-        <v>199</v>
+        <v>141</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>27</v>
@@ -2716,21 +2440,21 @@
         <v>26</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="22"/>
       <c r="I17" s="22" t="s">
-        <v>203</v>
+        <v>145</v>
       </c>
       <c r="J17" s="22"/>
     </row>
     <row r="18" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="25" t="s">
-        <v>197</v>
+        <v>139</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="22" t="s">
-        <v>200</v>
+        <v>142</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>27</v>
@@ -2740,21 +2464,21 @@
         <v>26</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H18" s="22"/>
       <c r="I18" s="22" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="J18" s="22"/>
     </row>
     <row r="19" spans="1:10" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B19" s="28"/>
       <c r="C19" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>27</v>
@@ -2764,21 +2488,21 @@
         <v>26</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H19" s="22"/>
       <c r="I19" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J19" s="37"/>
     </row>
     <row r="20" spans="1:10" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="25" t="s">
-        <v>164</v>
+        <v>115</v>
       </c>
       <c r="B20" s="28"/>
       <c r="C20" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>27</v>
@@ -2788,21 +2512,21 @@
         <v>26</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H20" s="22"/>
       <c r="I20" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="25" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="B21" s="28"/>
       <c r="C21" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>27</v>
@@ -2812,21 +2536,21 @@
         <v>26</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="22"/>
       <c r="I21" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J21" s="37"/>
     </row>
     <row r="22" spans="1:10" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="25" t="s">
-        <v>206</v>
+        <v>148</v>
       </c>
       <c r="B22" s="28"/>
       <c r="C22" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>27</v>
@@ -2836,21 +2560,21 @@
         <v>26</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="22"/>
       <c r="I22" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="J22" s="22"/>
     </row>
     <row r="23" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B23" s="28"/>
       <c r="C23" s="22" t="s">
-        <v>209</v>
+        <v>151</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>27</v>
@@ -2860,21 +2584,21 @@
         <v>26</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H23" s="22"/>
       <c r="I23" s="22" t="s">
-        <v>213</v>
+        <v>155</v>
       </c>
       <c r="J23" s="22"/>
     </row>
     <row r="24" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="25" t="s">
-        <v>165</v>
+        <v>116</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="22" t="s">
-        <v>210</v>
+        <v>152</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>27</v>
@@ -2884,21 +2608,21 @@
         <v>26</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H24" s="22"/>
       <c r="I24" s="22" t="s">
-        <v>214</v>
+        <v>156</v>
       </c>
       <c r="J24" s="22"/>
     </row>
     <row r="25" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="25" t="s">
-        <v>207</v>
+        <v>149</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="22" t="s">
-        <v>211</v>
+        <v>153</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>27</v>
@@ -2908,21 +2632,21 @@
         <v>26</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H25" s="22"/>
       <c r="I25" s="22" t="s">
-        <v>215</v>
+        <v>157</v>
       </c>
       <c r="J25" s="22"/>
     </row>
     <row r="26" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
-        <v>208</v>
+        <v>150</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="22" t="s">
-        <v>212</v>
+        <v>154</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>27</v>
@@ -2932,21 +2656,21 @@
         <v>26</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H26" s="22"/>
       <c r="I26" s="22" t="s">
-        <v>216</v>
+        <v>158</v>
       </c>
       <c r="J26" s="22"/>
     </row>
     <row r="27" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="22" t="s">
-        <v>162</v>
+        <v>113</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>27</v>
@@ -2956,21 +2680,21 @@
         <v>26</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H27" s="22"/>
       <c r="I27" s="22" t="s">
-        <v>163</v>
+        <v>114</v>
       </c>
       <c r="J27" s="22"/>
     </row>
     <row r="28" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="22" t="s">
-        <v>217</v>
+        <v>159</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>27</v>
@@ -2984,17 +2708,17 @@
       </c>
       <c r="H28" s="22"/>
       <c r="I28" s="22" t="s">
-        <v>218</v>
+        <v>160</v>
       </c>
       <c r="J28" s="22"/>
     </row>
     <row r="29" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="22" t="s">
-        <v>219</v>
+        <v>161</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>27</v>
@@ -3008,17 +2732,17 @@
       </c>
       <c r="H29" s="22"/>
       <c r="I29" s="22" t="s">
-        <v>220</v>
+        <v>162</v>
       </c>
       <c r="J29" s="22"/>
     </row>
     <row r="30" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="22" t="s">
-        <v>221</v>
+        <v>163</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>27</v>
@@ -3028,23 +2752,23 @@
         <v>26</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H30" s="22"/>
       <c r="I30" s="22" t="s">
-        <v>224</v>
+        <v>166</v>
       </c>
       <c r="J30" s="22"/>
     </row>
     <row r="31" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="B31" s="28">
         <v>50</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>222</v>
+        <v>164</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>27</v>
@@ -3054,21 +2778,21 @@
         <v>26</v>
       </c>
       <c r="G31" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H31" s="22"/>
       <c r="I31" s="22" t="s">
-        <v>225</v>
+        <v>167</v>
       </c>
       <c r="J31" s="22"/>
     </row>
     <row r="32" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B32" s="28"/>
       <c r="C32" s="22" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>27</v>
@@ -3078,21 +2802,21 @@
         <v>26</v>
       </c>
       <c r="G32" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H32" s="22"/>
       <c r="I32" s="22" t="s">
-        <v>226</v>
+        <v>168</v>
       </c>
       <c r="J32" s="22"/>
     </row>
     <row r="33" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="B33" s="28"/>
       <c r="C33" s="22" t="s">
-        <v>227</v>
+        <v>169</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>27</v>
@@ -3102,21 +2826,21 @@
         <v>26</v>
       </c>
       <c r="G33" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H33" s="22"/>
       <c r="I33" s="22" t="s">
-        <v>189</v>
+        <v>131</v>
       </c>
       <c r="J33" s="22"/>
     </row>
     <row r="34" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="B34" s="28"/>
       <c r="C34" s="22" t="s">
-        <v>228</v>
+        <v>170</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>27</v>
@@ -3126,21 +2850,21 @@
         <v>26</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H34" s="22"/>
       <c r="I34" s="22" t="s">
-        <v>188</v>
+        <v>130</v>
       </c>
       <c r="J34" s="22"/>
     </row>
     <row r="35" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
-        <v>146</v>
+        <v>108</v>
       </c>
       <c r="B35" s="28"/>
       <c r="C35" s="22" t="s">
-        <v>229</v>
+        <v>171</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>27</v>
@@ -3150,21 +2874,21 @@
         <v>26</v>
       </c>
       <c r="G35" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H35" s="22"/>
       <c r="I35" s="22" t="s">
-        <v>232</v>
+        <v>174</v>
       </c>
       <c r="J35" s="22"/>
     </row>
-    <row r="36" spans="1:10" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
-        <v>148</v>
+        <v>109</v>
       </c>
       <c r="B36" s="28"/>
       <c r="C36" s="22" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>27</v>
@@ -3174,21 +2898,21 @@
         <v>26</v>
       </c>
       <c r="G36" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H36" s="22"/>
       <c r="I36" s="22" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="J36" s="22"/>
     </row>
     <row r="37" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
-        <v>150</v>
+        <v>110</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="22" t="s">
-        <v>231</v>
+        <v>173</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>27</v>
@@ -3198,21 +2922,21 @@
         <v>26</v>
       </c>
       <c r="G37" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H37" s="22"/>
       <c r="I37" s="22" t="s">
-        <v>233</v>
+        <v>175</v>
       </c>
       <c r="J37" s="22"/>
     </row>
     <row r="38" spans="1:10" s="24" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="B38" s="28"/>
       <c r="C38" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>27</v>
@@ -3222,23 +2946,23 @@
         <v>26</v>
       </c>
       <c r="G38" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H38" s="22"/>
       <c r="I38" s="22" t="s">
-        <v>234</v>
+        <v>176</v>
       </c>
       <c r="J38" s="22"/>
     </row>
     <row r="39" spans="1:10" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
-        <v>161</v>
+        <v>112</v>
       </c>
       <c r="B39" s="28">
         <v>51</v>
       </c>
       <c r="C39" s="22" t="s">
-        <v>235</v>
+        <v>177</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>27</v>
@@ -3248,23 +2972,23 @@
         <v>26</v>
       </c>
       <c r="G39" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H39" s="22"/>
       <c r="I39" s="22" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="J39" s="22"/>
     </row>
     <row r="40" spans="1:10" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
-        <v>172</v>
+        <v>117</v>
       </c>
       <c r="B40" s="28">
         <v>52</v>
       </c>
       <c r="C40" s="22" t="s">
-        <v>239</v>
+        <v>180</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>27</v>
@@ -3274,23 +2998,23 @@
         <v>26</v>
       </c>
       <c r="G40" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H40" s="22"/>
       <c r="I40" s="22" t="s">
-        <v>238</v>
+        <v>179</v>
       </c>
       <c r="J40" s="22"/>
     </row>
     <row r="41" spans="1:10" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
-        <v>173</v>
+        <v>118</v>
       </c>
       <c r="B41" s="28">
         <v>53</v>
       </c>
       <c r="C41" s="22" t="s">
-        <v>240</v>
+        <v>181</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>27</v>
@@ -3300,21 +3024,21 @@
         <v>26</v>
       </c>
       <c r="G41" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H41" s="22"/>
       <c r="I41" s="22" t="s">
-        <v>242</v>
+        <v>183</v>
       </c>
       <c r="J41" s="22"/>
     </row>
     <row r="42" spans="1:10" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="B42" s="28"/>
       <c r="C42" s="22" t="s">
-        <v>241</v>
+        <v>182</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>27</v>
@@ -3324,23 +3048,23 @@
         <v>26</v>
       </c>
       <c r="G42" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H42" s="22"/>
       <c r="I42" s="22" t="s">
-        <v>243</v>
+        <v>184</v>
       </c>
       <c r="J42" s="22"/>
     </row>
     <row r="43" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
-        <v>182</v>
+        <v>124</v>
       </c>
       <c r="B43" s="28">
         <v>54</v>
       </c>
       <c r="C43" s="22" t="s">
-        <v>258</v>
+        <v>199</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>27</v>
@@ -3354,19 +3078,19 @@
       </c>
       <c r="H43" s="22"/>
       <c r="I43" s="22" t="s">
-        <v>259</v>
+        <v>200</v>
       </c>
       <c r="J43" s="22"/>
     </row>
     <row r="44" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
-        <v>244</v>
+        <v>185</v>
       </c>
       <c r="B44" s="28">
         <v>55</v>
       </c>
       <c r="C44" s="22" t="s">
-        <v>257</v>
+        <v>198</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>27</v>
@@ -3380,17 +3104,17 @@
       </c>
       <c r="H44" s="22"/>
       <c r="I44" s="22" t="s">
-        <v>260</v>
+        <v>201</v>
       </c>
       <c r="J44" s="22"/>
     </row>
     <row r="45" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="25" t="s">
-        <v>245</v>
+        <v>186</v>
       </c>
       <c r="B45" s="28"/>
       <c r="C45" s="22" t="s">
-        <v>256</v>
+        <v>197</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>27</v>
@@ -3404,19 +3128,19 @@
       </c>
       <c r="H45" s="22"/>
       <c r="I45" s="22" t="s">
-        <v>261</v>
+        <v>202</v>
       </c>
       <c r="J45" s="22"/>
     </row>
     <row r="46" spans="1:10" s="24" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="28">
         <v>57</v>
       </c>
       <c r="C46" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>27</v>
@@ -3428,25 +3152,25 @@
         <v>26</v>
       </c>
       <c r="G46" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J46" s="22"/>
     </row>
     <row r="47" spans="1:10" s="24" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B47" s="28">
         <v>58</v>
       </c>
       <c r="C47" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>27</v>
@@ -3458,25 +3182,25 @@
         <v>26</v>
       </c>
       <c r="G47" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J47" s="22"/>
     </row>
     <row r="48" spans="1:10" s="24" customFormat="1" ht="45" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B48" s="28">
         <v>59</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>27</v>
@@ -3488,23 +3212,23 @@
         <v>26</v>
       </c>
       <c r="G48" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>178</v>
+        <v>121</v>
       </c>
       <c r="I48" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J48" s="22"/>
     </row>
     <row r="49" spans="1:10" s="24" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B49" s="25"/>
       <c r="C49" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>27</v>
@@ -3519,20 +3243,20 @@
         <v>24</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>179</v>
+        <v>122</v>
       </c>
       <c r="I49" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J49" s="22"/>
     </row>
     <row r="50" spans="1:10" s="24" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
-        <v>246</v>
+        <v>187</v>
       </c>
       <c r="B50" s="25"/>
       <c r="C50" s="22" t="s">
-        <v>255</v>
+        <v>196</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>27</v>
@@ -3546,17 +3270,17 @@
       </c>
       <c r="H50" s="22"/>
       <c r="I50" s="22" t="s">
-        <v>262</v>
+        <v>203</v>
       </c>
       <c r="J50" s="22"/>
     </row>
     <row r="51" spans="1:10" s="24" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B51" s="25"/>
       <c r="C51" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>27</v>
@@ -3571,20 +3295,20 @@
         <v>24</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="I51" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J51" s="22"/>
     </row>
     <row r="52" spans="1:10" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A52" s="25" t="s">
-        <v>247</v>
+        <v>188</v>
       </c>
       <c r="B52" s="25"/>
       <c r="C52" s="22" t="s">
-        <v>254</v>
+        <v>195</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>27</v>
@@ -3598,17 +3322,17 @@
       </c>
       <c r="H52" s="22"/>
       <c r="I52" s="22" t="s">
-        <v>263</v>
+        <v>204</v>
       </c>
       <c r="J52" s="22"/>
     </row>
     <row r="53" spans="1:10" s="24" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="25" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B53" s="25"/>
       <c r="C53" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>27</v>
@@ -3620,23 +3344,23 @@
         <v>26</v>
       </c>
       <c r="G53" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="I53" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J53" s="22"/>
     </row>
     <row r="54" spans="1:10" s="24" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B54" s="25"/>
       <c r="C54" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>27</v>
@@ -3648,23 +3372,23 @@
         <v>26</v>
       </c>
       <c r="G54" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="I54" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="J54" s="22"/>
     </row>
     <row r="55" spans="1:10" s="24" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="25" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B55" s="25"/>
       <c r="C55" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>27</v>
@@ -3676,23 +3400,23 @@
         <v>26</v>
       </c>
       <c r="G55" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>177</v>
+        <v>120</v>
       </c>
       <c r="I55" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J55" s="22"/>
     </row>
     <row r="56" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B56" s="22"/>
       <c r="C56" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>27</v>
@@ -3704,23 +3428,23 @@
         <v>26</v>
       </c>
       <c r="G56" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H56" s="22" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="I56" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="J56" s="22"/>
     </row>
     <row r="57" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="25" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B57" s="25"/>
       <c r="C57" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>27</v>
@@ -3732,23 +3456,23 @@
         <v>26</v>
       </c>
       <c r="G57" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="I57" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="J57" s="22"/>
     </row>
     <row r="58" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B58" s="25"/>
       <c r="C58" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>27</v>
@@ -3760,23 +3484,23 @@
         <v>26</v>
       </c>
       <c r="G58" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="I58" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J58" s="22"/>
     </row>
     <row r="59" spans="1:10" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="25" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="B59" s="25"/>
       <c r="C59" s="22" t="s">
-        <v>253</v>
+        <v>194</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>27</v>
@@ -3790,17 +3514,17 @@
       </c>
       <c r="H59" s="22"/>
       <c r="I59" s="22" t="s">
-        <v>264</v>
+        <v>205</v>
       </c>
       <c r="J59" s="22"/>
     </row>
     <row r="60" spans="1:10" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A60" s="25" t="s">
-        <v>249</v>
+        <v>190</v>
       </c>
       <c r="B60" s="25"/>
       <c r="C60" s="22" t="s">
-        <v>252</v>
+        <v>193</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>27</v>
@@ -3814,17 +3538,17 @@
       </c>
       <c r="H60" s="22"/>
       <c r="I60" s="22" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="J60" s="22"/>
     </row>
     <row r="61" spans="1:10" s="24" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="25" t="s">
-        <v>250</v>
+        <v>191</v>
       </c>
       <c r="B61" s="25"/>
       <c r="C61" s="22" t="s">
-        <v>251</v>
+        <v>192</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>27</v>
@@ -3838,68 +3562,128 @@
       </c>
       <c r="H61" s="22"/>
       <c r="I61" s="22" t="s">
-        <v>266</v>
+        <v>207</v>
       </c>
       <c r="J61" s="22"/>
     </row>
-    <row r="62" spans="1:10" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="25"/>
+    <row r="62" spans="1:10" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A62" s="25" t="s">
+        <v>208</v>
+      </c>
       <c r="B62" s="25"/>
-      <c r="C62" s="25"/>
-      <c r="D62" s="3"/>
+      <c r="C62" s="22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E62" s="3"/>
-      <c r="F62" s="23"/>
-      <c r="G62" s="22"/>
+      <c r="F62" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="H62" s="22"/>
-      <c r="I62" s="22"/>
+      <c r="I62" s="22" t="s">
+        <v>209</v>
+      </c>
       <c r="J62" s="22"/>
     </row>
-    <row r="63" spans="1:10" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="25"/>
+    <row r="63" spans="1:10" s="24" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="25" t="s">
+        <v>211</v>
+      </c>
       <c r="B63" s="25"/>
-      <c r="C63" s="25"/>
-      <c r="D63" s="3"/>
+      <c r="C63" s="22" t="s">
+        <v>212</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E63" s="3"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="22"/>
+      <c r="F63" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="H63" s="22"/>
-      <c r="I63" s="22"/>
+      <c r="I63" s="22" t="s">
+        <v>213</v>
+      </c>
       <c r="J63" s="22"/>
     </row>
-    <row r="64" spans="1:10" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="25"/>
+    <row r="64" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A64" s="25" t="s">
+        <v>214</v>
+      </c>
       <c r="B64" s="25"/>
-      <c r="C64" s="25"/>
-      <c r="D64" s="3"/>
+      <c r="C64" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E64" s="3"/>
-      <c r="F64" s="23"/>
-      <c r="G64" s="22"/>
+      <c r="F64" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="H64" s="22"/>
-      <c r="I64" s="22"/>
+      <c r="I64" s="22" t="s">
+        <v>216</v>
+      </c>
       <c r="J64" s="22"/>
     </row>
-    <row r="65" spans="1:10" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="25"/>
+    <row r="65" spans="1:10" s="24" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A65" s="25" t="s">
+        <v>217</v>
+      </c>
       <c r="B65" s="25"/>
-      <c r="C65" s="22"/>
-      <c r="D65" s="3"/>
+      <c r="C65" s="22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E65" s="3"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="22"/>
+      <c r="F65" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="H65" s="22"/>
-      <c r="I65" s="22"/>
+      <c r="I65" s="22" t="s">
+        <v>216</v>
+      </c>
       <c r="J65" s="22"/>
     </row>
-    <row r="66" spans="1:10" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="25"/>
+    <row r="66" spans="1:10" s="24" customFormat="1" ht="105" x14ac:dyDescent="0.25">
+      <c r="A66" s="25" t="s">
+        <v>219</v>
+      </c>
       <c r="B66" s="25"/>
-      <c r="C66" s="25"/>
-      <c r="D66" s="3"/>
+      <c r="C66" s="22" t="s">
+        <v>220</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>27</v>
+      </c>
       <c r="E66" s="3"/>
-      <c r="F66" s="23"/>
-      <c r="G66" s="22"/>
+      <c r="F66" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>34</v>
+      </c>
       <c r="H66" s="22"/>
-      <c r="I66" s="22"/>
+      <c r="I66" s="22" t="s">
+        <v>221</v>
+      </c>
       <c r="J66" s="22"/>
     </row>
     <row r="67" spans="1:10" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
@@ -3911,1007 +3695,167 @@
       <c r="F67" s="23"/>
       <c r="G67" s="22"/>
       <c r="H67" s="22"/>
-      <c r="I67" s="22"/>
+      <c r="I67" s="25"/>
       <c r="J67" s="22"/>
     </row>
-    <row r="68" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="25" t="s">
-        <v>116</v>
-      </c>
+    <row r="68" spans="1:10" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A68" s="25"/>
       <c r="B68" s="25"/>
-      <c r="C68" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F68" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I68" s="22" t="s">
-        <v>111</v>
-      </c>
+      <c r="C68" s="22"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="23"/>
+      <c r="G68" s="22"/>
+      <c r="H68" s="22"/>
+      <c r="I68" s="25"/>
       <c r="J68" s="22"/>
     </row>
-    <row r="69" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="25" t="s">
-        <v>118</v>
-      </c>
+    <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="25"/>
       <c r="B69" s="25"/>
-      <c r="C69" s="22" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F69" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G69" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H69" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I69" s="22" t="s">
-        <v>112</v>
-      </c>
+      <c r="C69" s="22"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="22"/>
+      <c r="H69" s="22"/>
+      <c r="I69" s="25"/>
       <c r="J69" s="22"/>
     </row>
-    <row r="70" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="25" t="s">
-        <v>120</v>
-      </c>
+    <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A70" s="25"/>
       <c r="B70" s="25"/>
-      <c r="C70" s="25" t="s">
-        <v>107</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F70" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G70" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H70" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I70" s="22" t="s">
-        <v>113</v>
-      </c>
+      <c r="C70" s="22"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="22"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="25"/>
       <c r="J70" s="22"/>
     </row>
-    <row r="71" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="25" t="s">
-        <v>166</v>
-      </c>
+    <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A71" s="25"/>
       <c r="B71" s="25"/>
-      <c r="C71" s="25" t="s">
-        <v>108</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F71" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H71" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I71" s="22" t="s">
-        <v>114</v>
-      </c>
+      <c r="C71" s="22"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="22"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="25"/>
       <c r="J71" s="22"/>
     </row>
-    <row r="72" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="25" t="s">
-        <v>167</v>
-      </c>
+    <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A72" s="25"/>
       <c r="B72" s="25"/>
-      <c r="C72" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F72" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I72" s="22" t="s">
-        <v>115</v>
-      </c>
+      <c r="C72" s="22"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="23"/>
+      <c r="G72" s="22"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="25"/>
       <c r="J72" s="22"/>
     </row>
-    <row r="73" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="25" t="s">
-        <v>168</v>
-      </c>
+    <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A73" s="25"/>
       <c r="B73" s="25"/>
-      <c r="C73" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F73" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G73" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="H73" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I73" s="22" t="s">
-        <v>114</v>
-      </c>
+      <c r="C73" s="22"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="23"/>
+      <c r="G73" s="22"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="22"/>
       <c r="J73" s="22"/>
     </row>
-    <row r="74" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="25" t="s">
-        <v>125</v>
-      </c>
+    <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A74" s="25"/>
       <c r="B74" s="25"/>
-      <c r="C74" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F74" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H74" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I74" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="C74" s="22"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
       <c r="J74" s="22"/>
     </row>
-    <row r="75" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="25" t="s">
-        <v>126</v>
-      </c>
+    <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A75" s="25"/>
       <c r="B75" s="25"/>
-      <c r="C75" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E75" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F75" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G75" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I75" s="22" t="s">
-        <v>123</v>
-      </c>
+      <c r="C75" s="22"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
       <c r="J75" s="22"/>
     </row>
-    <row r="76" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="25" t="s">
-        <v>127</v>
-      </c>
+    <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A76" s="25"/>
       <c r="B76" s="25"/>
-      <c r="C76" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F76" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H76" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I76" s="22" t="s">
-        <v>124</v>
-      </c>
+      <c r="C76" s="22"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="23"/>
+      <c r="G76" s="22"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="22"/>
       <c r="J76" s="22"/>
     </row>
-    <row r="77" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="25" t="s">
-        <v>128</v>
-      </c>
+    <row r="77" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="25"/>
       <c r="B77" s="25"/>
-      <c r="C77" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F77" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G77" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H77" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I77" s="22" t="s">
-        <v>122</v>
-      </c>
+      <c r="C77" s="22"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="23"/>
+      <c r="G77" s="22"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="22"/>
       <c r="J77" s="22"/>
     </row>
-    <row r="78" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="25" t="s">
-        <v>129</v>
-      </c>
-      <c r="B78" s="25"/>
-      <c r="C78" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F78" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H78" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I78" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="J78" s="22"/>
-    </row>
-    <row r="79" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="25" t="s">
-        <v>130</v>
-      </c>
-      <c r="B79" s="25"/>
-      <c r="C79" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F79" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G79" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I79" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J79" s="22"/>
-    </row>
-    <row r="80" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="25" t="s">
-        <v>131</v>
-      </c>
-      <c r="B80" s="25"/>
-      <c r="C80" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F80" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H80" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I80" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="J80" s="22"/>
-    </row>
-    <row r="81" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="25" t="s">
-        <v>133</v>
-      </c>
-      <c r="B81" s="25"/>
-      <c r="C81" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F81" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G81" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H81" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I81" s="22" t="s">
-        <v>123</v>
-      </c>
-      <c r="J81" s="22"/>
-    </row>
-    <row r="82" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="25" t="s">
-        <v>135</v>
-      </c>
-      <c r="B82" s="25"/>
-      <c r="C82" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F82" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="H82" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I82" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="J82" s="22"/>
-    </row>
-    <row r="83" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="25" t="s">
-        <v>146</v>
-      </c>
-      <c r="B83" s="25"/>
-      <c r="C83" s="22" t="s">
-        <v>132</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H83" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I83" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J83" s="22"/>
-    </row>
-    <row r="84" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="B84" s="25"/>
-      <c r="C84" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F84" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G84" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H84" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I84" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="J84" s="22"/>
-    </row>
-    <row r="85" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="25" t="s">
-        <v>150</v>
-      </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H85" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I85" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="J85" s="22"/>
-    </row>
-    <row r="86" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B86" s="25"/>
-      <c r="C86" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H86" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I86" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J86" s="22"/>
-    </row>
-    <row r="87" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B87" s="25"/>
-      <c r="C87" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E87" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F87" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H87" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I87" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="J87" s="22"/>
-    </row>
-    <row r="88" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="25" t="s">
-        <v>156</v>
-      </c>
-      <c r="B88" s="25"/>
-      <c r="C88" s="22" t="s">
-        <v>139</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E88" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F88" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H88" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I88" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="J88" s="22"/>
-    </row>
-    <row r="89" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="25" t="s">
-        <v>169</v>
-      </c>
-      <c r="B89" s="25"/>
-      <c r="C89" s="22" t="s">
-        <v>140</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E89" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F89" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G89" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H89" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I89" s="22" t="s">
-        <v>143</v>
-      </c>
-      <c r="J89" s="22"/>
-    </row>
-    <row r="90" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="25"/>
-      <c r="C90" s="22" t="s">
-        <v>141</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F90" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H90" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I90" s="22" t="s">
-        <v>144</v>
-      </c>
-      <c r="J90" s="22"/>
-    </row>
-    <row r="91" spans="1:10" s="24" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B91" s="25"/>
-      <c r="C91" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E91" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F91" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H91" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="I91" s="22" t="s">
-        <v>145</v>
-      </c>
-      <c r="J91" s="22"/>
-    </row>
-    <row r="92" spans="1:10" s="24" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="25" t="s">
-        <v>161</v>
-      </c>
-      <c r="B92" s="25"/>
-      <c r="C92" s="22" t="s">
-        <v>147</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F92" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H92" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="I92" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="J92" s="22"/>
-    </row>
-    <row r="93" spans="1:10" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="25"/>
-      <c r="B93" s="25"/>
-      <c r="C93" s="22"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="23"/>
-      <c r="G93" s="22"/>
-      <c r="H93" s="22"/>
-      <c r="I93" s="22"/>
-      <c r="J93" s="22"/>
-    </row>
-    <row r="94" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="25" t="s">
-        <v>172</v>
-      </c>
-      <c r="B94" s="25"/>
-      <c r="C94" s="22" t="s">
-        <v>149</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E94" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F94" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G94" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H94" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="I94" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="J94" s="22"/>
-    </row>
-    <row r="95" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="25" t="s">
-        <v>173</v>
-      </c>
-      <c r="B95" s="25"/>
-      <c r="C95" s="22" t="s">
-        <v>151</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F95" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G95" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H95" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="I95" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="J95" s="22"/>
-    </row>
-    <row r="96" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="25" t="s">
-        <v>174</v>
-      </c>
-      <c r="B96" s="25"/>
-      <c r="C96" s="22" t="s">
-        <v>153</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E96" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F96" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H96" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="I96" s="22" t="s">
-        <v>158</v>
-      </c>
-      <c r="J96" s="22"/>
-    </row>
-    <row r="97" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="25" t="s">
-        <v>175</v>
-      </c>
-      <c r="B97" s="25"/>
-      <c r="C97" s="22" t="s">
-        <v>155</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G97" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H97" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="I97" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="J97" s="22"/>
-    </row>
-    <row r="98" spans="1:10" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="25" t="s">
-        <v>176</v>
-      </c>
-      <c r="B98" s="25"/>
-      <c r="C98" s="22" t="s">
-        <v>157</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E98" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F98" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="H98" s="22" t="s">
-        <v>181</v>
-      </c>
-      <c r="I98" s="22" t="s">
-        <v>160</v>
-      </c>
-      <c r="J98" s="22"/>
-    </row>
-    <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="25"/>
-      <c r="B99" s="25"/>
-      <c r="C99" s="22"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="23"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
-    </row>
-    <row r="100" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A100" s="25"/>
-      <c r="B100" s="25"/>
-      <c r="C100" s="22"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
-    </row>
-    <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="25"/>
-      <c r="B101" s="25"/>
-      <c r="C101" s="22"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="23"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22"/>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
-    </row>
-    <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="25"/>
-      <c r="B102" s="25"/>
-      <c r="C102" s="22"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="23"/>
-      <c r="G102" s="22"/>
-      <c r="H102" s="22"/>
-      <c r="I102" s="22"/>
-      <c r="J102" s="22"/>
-    </row>
-    <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="25"/>
-      <c r="B103" s="25"/>
-      <c r="C103" s="22"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="23"/>
-      <c r="G103" s="22"/>
-      <c r="H103" s="22"/>
-      <c r="I103" s="22"/>
-      <c r="J103" s="22"/>
-    </row>
-    <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="25"/>
-      <c r="B104" s="25"/>
-      <c r="C104" s="22"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="23"/>
-      <c r="G104" s="22"/>
-      <c r="H104" s="22"/>
-      <c r="I104" s="22"/>
-      <c r="J104" s="22"/>
-    </row>
-    <row r="105" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A105" s="25"/>
-      <c r="B105" s="25"/>
-      <c r="C105" s="22"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="22"/>
-      <c r="H105" s="22"/>
-      <c r="I105" s="22"/>
-      <c r="J105" s="22"/>
-    </row>
-    <row r="106" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A106" s="25"/>
-      <c r="B106" s="25"/>
-      <c r="C106" s="22"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="23"/>
-      <c r="G106" s="22"/>
-      <c r="H106" s="22"/>
-      <c r="I106" s="22"/>
-      <c r="J106" s="22"/>
-    </row>
-    <row r="107" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A107" s="25"/>
-      <c r="B107" s="25"/>
-      <c r="C107" s="22"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="22"/>
-      <c r="H107" s="22"/>
-      <c r="I107" s="22"/>
-      <c r="J107" s="22"/>
-    </row>
-    <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="38"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="40"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-      <c r="I109" s="41"/>
-      <c r="J109" s="41"/>
-    </row>
-    <row r="110" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="38"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="40"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-    </row>
-    <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="38"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="38"/>
-      <c r="D111" s="39"/>
-      <c r="E111" s="39"/>
-      <c r="F111" s="40"/>
-      <c r="G111" s="41"/>
-      <c r="H111" s="41"/>
-      <c r="I111" s="41"/>
-      <c r="J111" s="41"/>
+    <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
+      <c r="F79" s="40"/>
+      <c r="G79" s="41"/>
+      <c r="H79" s="41"/>
+      <c r="I79" s="41"/>
+      <c r="J79" s="41"/>
+    </row>
+    <row r="80" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
+      <c r="F80" s="40"/>
+      <c r="G80" s="41"/>
+      <c r="H80" s="41"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="41"/>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
+      <c r="F81" s="40"/>
+      <c r="G81" s="41"/>
+      <c r="H81" s="41"/>
+      <c r="I81" s="41"/>
+      <c r="J81" s="41"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J98">
+  <autoFilter ref="A2:J68">
     <filterColumn colId="4">
       <filters>
         <filter val="Block"/>
@@ -4926,94 +3870,94 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E4 D109:E111 D74:E107 E30:E45 E49 E51:E52 E59:E97 D3:D73">
-    <cfRule type="containsText" dxfId="27" priority="18" operator="containsText" text="Not Applicable">
+  <conditionalFormatting sqref="E3:E4 D79:E81 E30:E45 E49 E51:E52 E59:E68 D3:D67 D68:E77">
+    <cfRule type="containsText" dxfId="19" priority="18" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="19" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="18" priority="19" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="20" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="17" priority="20" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4 D109:E111 D74:E107 E30:E45 E49 E51:E52 E59:E97 D3:D73">
-    <cfRule type="containsText" dxfId="24" priority="17" operator="containsText" text="Block">
+  <conditionalFormatting sqref="E3:E4 D79:E81 E30:E45 E49 E51:E52 E59:E68 D3:D67 D68:E77">
+    <cfRule type="containsText" dxfId="16" priority="17" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E48 E53:E58">
-    <cfRule type="containsText" dxfId="43" priority="14" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="15" priority="14" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",E46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="15" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="14" priority="15" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",E46)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="16" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="13" priority="16" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:E48 E53:E58">
-    <cfRule type="containsText" dxfId="40" priority="13" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="12" priority="13" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",E46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E27">
-    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="38" priority="11" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="10" priority="11" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",E5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="37" priority="12" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="9" priority="12" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5:E27">
-    <cfRule type="containsText" dxfId="36" priority="9" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",E5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="7" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",E28)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E28:E29">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="31" priority="2" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="3" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",E50)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="4" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",E50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E50">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",E50)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G109:G111 G3:G107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G79:G81 G3:G77">
       <formula1>"Chau Le, Dao Khau, Khang Huynh, Huy Ngo, Huy Nguyen, Phu Ta"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F109:F111 F3:F107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F79:F81 F3:F77">
       <formula1>"Automatic, Manual"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D109:E111 D3:E107">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D79:E81 D3:E77">
       <formula1>"Passed, Failed, Block, Not Applicable"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5036,13 +3980,13 @@
   <sheetData>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="D3" s="30" t="s">
         <v>41</v>
-      </c>
-      <c r="D3" s="30" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="4" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5050,7 +3994,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D4" s="31" t="b">
         <v>0</v>
@@ -5061,7 +4005,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="31" t="b">
         <v>0</v>
@@ -5072,7 +4016,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D6" s="31" t="b">
         <v>0</v>
@@ -5083,7 +4027,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="32" t="b">
         <v>1</v>
@@ -5101,13 +4045,13 @@
     </row>
     <row r="10" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B10" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D10" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5115,7 +4059,7 @@
         <v>1</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D11" s="31" t="b">
         <v>0</v>
@@ -5126,7 +4070,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="31" t="b">
         <v>0</v>
@@ -5137,7 +4081,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="32" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D13" s="32" t="b">
         <v>1</v>
@@ -5155,13 +4099,13 @@
     </row>
     <row r="16" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B16" s="29" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C16" s="29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -5169,7 +4113,7 @@
         <v>1</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17" s="31" t="b">
         <v>0</v>
@@ -5180,7 +4124,7 @@
         <v>2</v>
       </c>
       <c r="C18" s="34" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18" s="31" t="b">
         <v>0</v>
@@ -5191,7 +4135,7 @@
         <v>3</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19" s="31" t="b">
         <v>0</v>
@@ -5202,7 +4146,7 @@
         <v>4</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20" s="31" t="b">
         <v>0</v>
@@ -5213,7 +4157,7 @@
         <v>5</v>
       </c>
       <c r="C21" s="36" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21" s="32" t="b">
         <v>1</v>

--- a/6. Test/Sprint 2/Test report.xlsx
+++ b/6. Test/Sprint 2/Test report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="202">
   <si>
     <t>TC ID</t>
   </si>
@@ -368,9 +368,6 @@
 3. Chọn câu hỏi
 4. Chọn Đưa vào từ điển
 5. Xác nhận Đưa vào từ điển</t>
-  </si>
-  <si>
-    <t>TC.08.2</t>
   </si>
   <si>
     <t>Hiển thị danh sách câu hỏi trong danh sách hiện tại của bộ từ điển lên công cụ hiển thị</t>
@@ -759,6 +756,28 @@
   </si>
   <si>
     <t>Thực hiện tìm kiếm câu hỏi theo nội dung</t>
+  </si>
+  <si>
+    <t>Mỗi trang trong danh sách câu hỏi chưa trả lời chỉ hiển thị 6 câu hỏi.
+Hiển thị tối đa 3 trang ở danh sách câu hỏi chưa trả lời</t>
+  </si>
+  <si>
+    <t>0.4.15.2014</t>
+  </si>
+  <si>
+    <t>TC.07.1</t>
+  </si>
+  <si>
+    <t>TC.07.2</t>
+  </si>
+  <si>
+    <t>04.10.2014</t>
+  </si>
+  <si>
+    <t>Dao Khau</t>
+  </si>
+  <si>
+    <t>Failed</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1232,147 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="32">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF8FB75"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFE4444"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1809,10 +1968,10 @@
   <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1882,12 +2041,14 @@
       </c>
       <c r="B3" s="40"/>
       <c r="C3" s="41" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D3" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F3" s="43" t="s">
         <v>26</v>
       </c>
@@ -1895,7 +2056,7 @@
         <v>38</v>
       </c>
       <c r="H3" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I3" s="41" t="s">
         <v>68</v>
@@ -1913,7 +2074,9 @@
       <c r="D4" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="42"/>
+      <c r="E4" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F4" s="43" t="s">
         <v>26</v>
       </c>
@@ -1921,7 +2084,7 @@
         <v>38</v>
       </c>
       <c r="H4" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I4" s="41" t="s">
         <v>67</v>
@@ -1939,14 +2102,18 @@
       <c r="D5" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="42"/>
+      <c r="E5" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F5" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G5" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="41"/>
+      <c r="H5" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I5" s="41" t="s">
         <v>75</v>
       </c>
@@ -1963,14 +2130,18 @@
       <c r="D6" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="42"/>
+      <c r="E6" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F6" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H6" s="41"/>
+      <c r="H6" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I6" s="41" t="s">
         <v>76</v>
       </c>
@@ -1987,14 +2158,18 @@
       <c r="D7" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="42"/>
+      <c r="E7" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F7" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G7" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="41"/>
+      <c r="H7" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I7" s="41" t="s">
         <v>77</v>
       </c>
@@ -2011,14 +2186,18 @@
       <c r="D8" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="42"/>
+      <c r="E8" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F8" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G8" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="41"/>
+      <c r="H8" s="41" t="s">
+        <v>199</v>
+      </c>
       <c r="I8" s="41" t="s">
         <v>106</v>
       </c>
@@ -2035,14 +2214,18 @@
       <c r="D9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="42"/>
+      <c r="E9" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F9" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G9" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="41"/>
+      <c r="H9" s="41" t="s">
+        <v>199</v>
+      </c>
       <c r="I9" s="41" t="s">
         <v>107</v>
       </c>
@@ -2050,7 +2233,7 @@
     </row>
     <row r="10" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>37</v>
+        <v>197</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="41" t="s">
@@ -2059,14 +2242,18 @@
       <c r="D10" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="42"/>
+      <c r="E10" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F10" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G10" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H10" s="41"/>
+      <c r="H10" s="41" t="s">
+        <v>196</v>
+      </c>
       <c r="I10" s="41" t="s">
         <v>68</v>
       </c>
@@ -2074,7 +2261,7 @@
     </row>
     <row r="11" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>108</v>
+        <v>198</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="44" t="s">
@@ -2083,14 +2270,18 @@
       <c r="D11" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="42"/>
+      <c r="E11" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F11" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G11" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H11" s="41"/>
+      <c r="H11" s="41" t="s">
+        <v>196</v>
+      </c>
       <c r="I11" s="41" t="s">
         <v>67</v>
       </c>
@@ -2102,21 +2293,25 @@
       </c>
       <c r="B12" s="39"/>
       <c r="C12" s="41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D12" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E12" s="42"/>
+      <c r="E12" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F12" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G12" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H12" s="41"/>
+      <c r="H12" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I12" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J12" s="41"/>
     </row>
@@ -2126,21 +2321,25 @@
       </c>
       <c r="B13" s="39"/>
       <c r="C13" s="41" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="42"/>
+      <c r="E13" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F13" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G13" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="41"/>
+      <c r="H13" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I13" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="J13" s="41"/>
     </row>
@@ -2150,21 +2349,25 @@
       </c>
       <c r="B14" s="39"/>
       <c r="C14" s="41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D14" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E14" s="42"/>
+      <c r="E14" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F14" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G14" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="41"/>
+      <c r="H14" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I14" s="41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="J14" s="41"/>
     </row>
@@ -2174,12 +2377,14 @@
       </c>
       <c r="B15" s="39"/>
       <c r="C15" s="41" t="s">
-        <v>116</v>
+        <v>195</v>
       </c>
       <c r="D15" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F15" s="43" t="s">
         <v>26</v>
       </c>
@@ -2187,10 +2392,10 @@
         <v>38</v>
       </c>
       <c r="H15" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J15" s="41"/>
     </row>
@@ -2200,12 +2405,14 @@
       </c>
       <c r="B16" s="39"/>
       <c r="C16" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D16" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E16" s="42"/>
+      <c r="E16" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F16" s="43" t="s">
         <v>26</v>
       </c>
@@ -2213,10 +2420,10 @@
         <v>38</v>
       </c>
       <c r="H16" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J16" s="41"/>
     </row>
@@ -2226,12 +2433,14 @@
       </c>
       <c r="B17" s="39"/>
       <c r="C17" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D17" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="42"/>
+      <c r="E17" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="43" t="s">
         <v>26</v>
       </c>
@@ -2239,25 +2448,27 @@
         <v>38</v>
       </c>
       <c r="H17" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J17" s="41"/>
     </row>
     <row r="18" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B18" s="39"/>
       <c r="C18" s="41" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D18" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="42"/>
+      <c r="E18" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F18" s="43" t="s">
         <v>26</v>
       </c>
@@ -2265,10 +2476,10 @@
         <v>38</v>
       </c>
       <c r="H18" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="J18" s="41"/>
     </row>
@@ -2283,7 +2494,9 @@
       <c r="D19" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E19" s="42"/>
+      <c r="E19" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F19" s="43" t="s">
         <v>26</v>
       </c>
@@ -2291,7 +2504,7 @@
         <v>38</v>
       </c>
       <c r="H19" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I19" s="41" t="s">
         <v>61</v>
@@ -2309,7 +2522,9 @@
       <c r="D20" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E20" s="42"/>
+      <c r="E20" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F20" s="43" t="s">
         <v>26</v>
       </c>
@@ -2317,7 +2532,7 @@
         <v>38</v>
       </c>
       <c r="H20" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I20" s="41" t="s">
         <v>62</v>
@@ -2326,7 +2541,7 @@
     </row>
     <row r="21" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B21" s="45"/>
       <c r="C21" s="41" t="s">
@@ -2335,7 +2550,9 @@
       <c r="D21" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="42"/>
+      <c r="E21" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F21" s="43" t="s">
         <v>26</v>
       </c>
@@ -2343,7 +2560,7 @@
         <v>38</v>
       </c>
       <c r="H21" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I21" s="41" t="s">
         <v>63</v>
@@ -2352,7 +2569,7 @@
     </row>
     <row r="22" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B22" s="45"/>
       <c r="C22" s="41" t="s">
@@ -2361,7 +2578,9 @@
       <c r="D22" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="42"/>
+      <c r="E22" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F22" s="43" t="s">
         <v>26</v>
       </c>
@@ -2369,7 +2588,7 @@
         <v>38</v>
       </c>
       <c r="H22" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I22" s="41" t="s">
         <v>64</v>
@@ -2382,12 +2601,14 @@
       </c>
       <c r="B23" s="45"/>
       <c r="C23" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D23" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="42"/>
+      <c r="E23" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F23" s="43" t="s">
         <v>26</v>
       </c>
@@ -2395,10 +2616,10 @@
         <v>38</v>
       </c>
       <c r="H23" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I23" s="41" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="J23" s="41"/>
     </row>
@@ -2408,12 +2629,14 @@
       </c>
       <c r="B24" s="45"/>
       <c r="C24" s="41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D24" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E24" s="42"/>
+      <c r="E24" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F24" s="43" t="s">
         <v>26</v>
       </c>
@@ -2421,25 +2644,27 @@
         <v>38</v>
       </c>
       <c r="H24" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I24" s="41" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="J24" s="41"/>
     </row>
     <row r="25" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B25" s="45"/>
       <c r="C25" s="41" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D25" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E25" s="42"/>
+      <c r="E25" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F25" s="43" t="s">
         <v>26</v>
       </c>
@@ -2447,25 +2672,27 @@
         <v>38</v>
       </c>
       <c r="H25" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I25" s="41" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J25" s="41"/>
     </row>
     <row r="26" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B26" s="45"/>
       <c r="C26" s="41" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D26" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E26" s="42"/>
+      <c r="E26" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F26" s="43" t="s">
         <v>26</v>
       </c>
@@ -2473,10 +2700,10 @@
         <v>38</v>
       </c>
       <c r="H26" s="41" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I26" s="41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J26" s="41"/>
     </row>
@@ -2491,7 +2718,9 @@
       <c r="D27" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="42"/>
+      <c r="E27" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F27" s="43" t="s">
         <v>26</v>
       </c>
@@ -2499,7 +2728,7 @@
         <v>38</v>
       </c>
       <c r="H27" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I27" s="41" t="s">
         <v>94</v>
@@ -2512,21 +2741,25 @@
       </c>
       <c r="B28" s="45"/>
       <c r="C28" s="41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D28" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="42"/>
+      <c r="E28" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F28" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G28" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="41"/>
+      <c r="H28" s="41" t="s">
+        <v>196</v>
+      </c>
       <c r="I28" s="41" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J28" s="41"/>
     </row>
@@ -2536,21 +2769,25 @@
       </c>
       <c r="B29" s="45"/>
       <c r="C29" s="41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D29" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E29" s="42"/>
+      <c r="E29" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F29" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G29" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="41"/>
+      <c r="H29" s="41" t="s">
+        <v>196</v>
+      </c>
       <c r="I29" s="41" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="J29" s="41"/>
     </row>
@@ -2560,21 +2797,25 @@
       </c>
       <c r="B30" s="45"/>
       <c r="C30" s="41" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D30" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="42"/>
+      <c r="E30" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F30" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G30" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H30" s="41"/>
+      <c r="H30" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I30" s="41" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J30" s="41"/>
     </row>
@@ -2586,21 +2827,25 @@
         <v>50</v>
       </c>
       <c r="C31" s="41" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D31" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="42"/>
+      <c r="E31" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F31" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G31" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H31" s="41"/>
+      <c r="H31" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I31" s="41" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J31" s="41"/>
     </row>
@@ -2610,21 +2855,25 @@
       </c>
       <c r="B32" s="45"/>
       <c r="C32" s="41" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D32" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E32" s="42"/>
+      <c r="E32" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F32" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G32" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="H32" s="41"/>
+      <c r="H32" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I32" s="41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J32" s="41"/>
     </row>
@@ -2634,19 +2883,23 @@
       </c>
       <c r="B33" s="45"/>
       <c r="C33" s="41" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D33" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E33" s="42"/>
+      <c r="E33" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F33" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G33" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H33" s="41"/>
+      <c r="H33" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I33" s="41" t="s">
         <v>107</v>
       </c>
@@ -2658,19 +2911,23 @@
       </c>
       <c r="B34" s="45"/>
       <c r="C34" s="41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D34" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E34" s="42"/>
+      <c r="E34" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F34" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G34" s="41" t="s">
         <v>35</v>
       </c>
-      <c r="H34" s="41"/>
+      <c r="H34" s="41" t="s">
+        <v>192</v>
+      </c>
       <c r="I34" s="41" t="s">
         <v>106</v>
       </c>
@@ -2682,12 +2939,14 @@
       </c>
       <c r="B35" s="45"/>
       <c r="C35" s="41" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D35" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E35" s="42"/>
+      <c r="E35" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F35" s="43" t="s">
         <v>26</v>
       </c>
@@ -2695,10 +2954,10 @@
         <v>38</v>
       </c>
       <c r="H35" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I35" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J35" s="41"/>
     </row>
@@ -2708,12 +2967,14 @@
       </c>
       <c r="B36" s="45"/>
       <c r="C36" s="41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E36" s="42"/>
+      <c r="E36" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F36" s="43" t="s">
         <v>26</v>
       </c>
@@ -2721,10 +2982,10 @@
         <v>38</v>
       </c>
       <c r="H36" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I36" s="41" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="J36" s="41"/>
     </row>
@@ -2734,12 +2995,14 @@
       </c>
       <c r="B37" s="45"/>
       <c r="C37" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D37" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E37" s="42"/>
+      <c r="E37" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F37" s="43" t="s">
         <v>26</v>
       </c>
@@ -2747,10 +3010,10 @@
         <v>38</v>
       </c>
       <c r="H37" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I37" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J37" s="41"/>
     </row>
@@ -2765,7 +3028,9 @@
       <c r="D38" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E38" s="42"/>
+      <c r="E38" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F38" s="43" t="s">
         <v>26</v>
       </c>
@@ -2773,10 +3038,10 @@
         <v>38</v>
       </c>
       <c r="H38" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I38" s="41" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="J38" s="41"/>
     </row>
@@ -2788,12 +3053,14 @@
         <v>51</v>
       </c>
       <c r="C39" s="41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D39" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E39" s="42"/>
+      <c r="E39" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F39" s="43" t="s">
         <v>26</v>
       </c>
@@ -2801,10 +3068,10 @@
         <v>38</v>
       </c>
       <c r="H39" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I39" s="41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J39" s="41"/>
     </row>
@@ -2816,12 +3083,14 @@
         <v>52</v>
       </c>
       <c r="C40" s="41" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D40" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E40" s="42"/>
+      <c r="E40" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F40" s="43" t="s">
         <v>26</v>
       </c>
@@ -2829,10 +3098,10 @@
         <v>38</v>
       </c>
       <c r="H40" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I40" s="41" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="J40" s="41"/>
     </row>
@@ -2844,12 +3113,14 @@
         <v>53</v>
       </c>
       <c r="C41" s="41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D41" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E41" s="42"/>
+      <c r="E41" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F41" s="43" t="s">
         <v>26</v>
       </c>
@@ -2857,10 +3128,10 @@
         <v>38</v>
       </c>
       <c r="H41" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I41" s="41" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="J41" s="41"/>
     </row>
@@ -2870,12 +3141,14 @@
       </c>
       <c r="B42" s="45"/>
       <c r="C42" s="41" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D42" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E42" s="42"/>
+      <c r="E42" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F42" s="43" t="s">
         <v>26</v>
       </c>
@@ -2883,10 +3156,10 @@
         <v>38</v>
       </c>
       <c r="H42" s="41" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="I42" s="41" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J42" s="41"/>
     </row>
@@ -2898,263 +3171,307 @@
         <v>54</v>
       </c>
       <c r="C43" s="41" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D43" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E43" s="42"/>
+      <c r="E43" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F43" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G43" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H43" s="41"/>
+      <c r="H43" s="41" t="s">
+        <v>199</v>
+      </c>
       <c r="I43" s="41" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="J43" s="41"/>
     </row>
     <row r="44" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B44" s="45">
         <v>55</v>
       </c>
       <c r="C44" s="41" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E44" s="42"/>
+      <c r="E44" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F44" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G44" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H44" s="41"/>
+      <c r="H44" s="41" t="s">
+        <v>199</v>
+      </c>
       <c r="I44" s="41" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J44" s="41"/>
     </row>
     <row r="45" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B45" s="45"/>
       <c r="C45" s="41" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D45" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E45" s="42"/>
+      <c r="E45" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F45" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G45" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H45" s="41"/>
+      <c r="H45" s="41" t="s">
+        <v>199</v>
+      </c>
       <c r="I45" s="41" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="J45" s="41"/>
     </row>
     <row r="46" spans="1:10" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B46" s="39"/>
       <c r="C46" s="41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D46" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E46" s="42"/>
+      <c r="E46" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F46" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G46" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H46" s="41"/>
+      <c r="H46" s="41" t="s">
+        <v>199</v>
+      </c>
       <c r="I46" s="41" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="J46" s="41"/>
     </row>
     <row r="47" spans="1:10" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A47" s="39" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B47" s="39"/>
       <c r="C47" s="41" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D47" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E47" s="42"/>
+      <c r="E47" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F47" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G47" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H47" s="41"/>
+      <c r="H47" s="41" t="s">
+        <v>193</v>
+      </c>
       <c r="I47" s="41" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="J47" s="41"/>
     </row>
     <row r="48" spans="1:10" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A48" s="39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B48" s="39"/>
       <c r="C48" s="41" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D48" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E48" s="42"/>
+      <c r="E48" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F48" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G48" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H48" s="41"/>
+      <c r="H48" s="41" t="s">
+        <v>193</v>
+      </c>
       <c r="I48" s="41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J48" s="41"/>
     </row>
     <row r="49" spans="1:10" s="23" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B49" s="39"/>
       <c r="C49" s="41" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D49" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="42"/>
+      <c r="E49" s="42" t="s">
+        <v>27</v>
+      </c>
       <c r="F49" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G49" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H49" s="41"/>
+      <c r="H49" s="41" t="s">
+        <v>193</v>
+      </c>
       <c r="I49" s="41" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="J49" s="41"/>
     </row>
     <row r="50" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B50" s="39"/>
       <c r="C50" s="41" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D50" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E50" s="42"/>
+      <c r="E50" s="42" t="s">
+        <v>201</v>
+      </c>
       <c r="F50" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G50" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H50" s="41"/>
+      <c r="H50" s="41" t="s">
+        <v>193</v>
+      </c>
       <c r="I50" s="41" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="J50" s="41"/>
     </row>
     <row r="51" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A51" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B51" s="39"/>
       <c r="C51" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D51" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E51" s="42"/>
+      <c r="E51" s="42" t="s">
+        <v>201</v>
+      </c>
       <c r="F51" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G51" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H51" s="41"/>
+      <c r="H51" s="41" t="s">
+        <v>193</v>
+      </c>
       <c r="I51" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J51" s="41"/>
     </row>
     <row r="52" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B52" s="39"/>
       <c r="C52" s="41" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D52" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="E52" s="42"/>
+      <c r="E52" s="42" t="s">
+        <v>201</v>
+      </c>
       <c r="F52" s="43" t="s">
         <v>26</v>
       </c>
       <c r="G52" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="H52" s="41"/>
+      <c r="H52" s="41" t="s">
+        <v>193</v>
+      </c>
       <c r="I52" s="41" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="J52" s="41"/>
     </row>
     <row r="53" spans="1:10" s="23" customFormat="1" ht="105" x14ac:dyDescent="0.25">
       <c r="A53" s="39" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B53" s="39"/>
       <c r="C53" s="41" t="s">
+        <v>189</v>
+      </c>
+      <c r="D53" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="F53" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="H53" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="I53" s="41" t="s">
         <v>190</v>
-      </c>
-      <c r="D53" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="E53" s="42"/>
-      <c r="F53" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41" t="s">
-        <v>191</v>
       </c>
       <c r="J53" s="41"/>
     </row>
@@ -3332,52 +3649,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
-  <conditionalFormatting sqref="E3:E4 D66:E68 E30:E55 D55:E64 D3:D54">
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Not Applicable">
+  <conditionalFormatting sqref="D66:E68 D55:E64 D3:D54 E3:E55">
+    <cfRule type="containsText" dxfId="31" priority="18" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="20" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E3:E4 D66:E68 E30:E55 D55:E64 D3:D54">
-    <cfRule type="containsText" dxfId="8" priority="17" operator="containsText" text="Block">
+  <conditionalFormatting sqref="D66:E68 D55:E64 D3:D54 E3:E55">
+    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",D3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E27">
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="11" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",E5)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="12" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E27">
-    <cfRule type="containsText" dxfId="4" priority="9" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",E5)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="Not Applicable">
-      <formula>NOT(ISERROR(SEARCH("Not Applicable",E28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="7" operator="containsText" text="Failed">
-      <formula>NOT(ISERROR(SEARCH("Failed",E28)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="8" operator="containsText" text="Passed">
-      <formula>NOT(ISERROR(SEARCH("Passed",E28)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E28:E29">
-    <cfRule type="containsText" dxfId="0" priority="5" operator="containsText" text="Block">
-      <formula>NOT(ISERROR(SEARCH("Block",E28)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">

--- a/6. Test/Sprint 2/Test report.xlsx
+++ b/6. Test/Sprint 2/Test report.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="205">
   <si>
     <t>TC ID</t>
   </si>
@@ -762,9 +762,6 @@
 Hiển thị tối đa 3 trang ở danh sách câu hỏi chưa trả lời</t>
   </si>
   <si>
-    <t>0.4.15.2014</t>
-  </si>
-  <si>
     <t>TC.07.1</t>
   </si>
   <si>
@@ -778,6 +775,18 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>04.14.2014</t>
+  </si>
+  <si>
+    <t>04.15.2014</t>
+  </si>
+  <si>
+    <t>04.16.2014</t>
+  </si>
+  <si>
+    <t>Addition</t>
   </si>
 </sst>
 </file>
@@ -1232,203 +1241,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFF8FB75"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="3" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFE4444"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -1765,8 +1578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F27"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A9" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1893,32 +1706,64 @@
       </c>
     </row>
     <row r="19" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="16"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="17"/>
+      <c r="B19" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="15">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="20" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="16"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="17"/>
+      <c r="B20" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C20" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="E20" s="14"/>
-      <c r="F20" s="15"/>
+      <c r="F20" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="16"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="17"/>
+      <c r="B21" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C21" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="E21" s="14"/>
-      <c r="F21" s="15"/>
+      <c r="F21" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="22" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="16"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="17"/>
+      <c r="B22" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C22" s="15">
+        <v>1.4</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>204</v>
+      </c>
       <c r="E22" s="14"/>
-      <c r="F22" s="15"/>
+      <c r="F22" s="15" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="23" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B23" s="16"/>
@@ -1965,13 +1810,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D53" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D50" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="E54" sqref="E54"/>
+      <selection pane="bottomRight" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2035,7 +1881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="39" t="s">
         <v>28</v>
       </c>
@@ -2063,7 +1909,7 @@
       </c>
       <c r="J3" s="41"/>
     </row>
-    <row r="4" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="39" t="s">
         <v>29</v>
       </c>
@@ -2091,7 +1937,7 @@
       </c>
       <c r="J4" s="41"/>
     </row>
-    <row r="5" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
         <v>30</v>
       </c>
@@ -2119,7 +1965,7 @@
       </c>
       <c r="J5" s="41"/>
     </row>
-    <row r="6" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>31</v>
       </c>
@@ -2147,7 +1993,7 @@
       </c>
       <c r="J6" s="41"/>
     </row>
-    <row r="7" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="39" t="s">
         <v>102</v>
       </c>
@@ -2175,7 +2021,7 @@
       </c>
       <c r="J7" s="41"/>
     </row>
-    <row r="8" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="40" t="s">
         <v>33</v>
       </c>
@@ -2196,14 +2042,14 @@
         <v>34</v>
       </c>
       <c r="H8" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I8" s="41" t="s">
         <v>106</v>
       </c>
       <c r="J8" s="41"/>
     </row>
-    <row r="9" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="40" t="s">
         <v>104</v>
       </c>
@@ -2224,7 +2070,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I9" s="41" t="s">
         <v>107</v>
@@ -2233,7 +2079,7 @@
     </row>
     <row r="10" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="39" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B10" s="39"/>
       <c r="C10" s="41" t="s">
@@ -2252,7 +2098,7 @@
         <v>24</v>
       </c>
       <c r="H10" s="41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I10" s="41" t="s">
         <v>68</v>
@@ -2261,7 +2107,7 @@
     </row>
     <row r="11" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="39" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B11" s="39"/>
       <c r="C11" s="44" t="s">
@@ -2280,14 +2126,14 @@
         <v>24</v>
       </c>
       <c r="H11" s="41" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="I11" s="41" t="s">
         <v>67</v>
       </c>
       <c r="J11" s="41"/>
     </row>
-    <row r="12" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="39" t="s">
         <v>37</v>
       </c>
@@ -2315,7 +2161,7 @@
       </c>
       <c r="J12" s="41"/>
     </row>
-    <row r="13" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="39" t="s">
         <v>55</v>
       </c>
@@ -2343,7 +2189,7 @@
       </c>
       <c r="J13" s="41"/>
     </row>
-    <row r="14" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="39" t="s">
         <v>56</v>
       </c>
@@ -2371,7 +2217,7 @@
       </c>
       <c r="J14" s="41"/>
     </row>
-    <row r="15" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="39" t="s">
         <v>69</v>
       </c>
@@ -2399,7 +2245,7 @@
       </c>
       <c r="J15" s="41"/>
     </row>
-    <row r="16" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="39" t="s">
         <v>71</v>
       </c>
@@ -2427,7 +2273,7 @@
       </c>
       <c r="J16" s="41"/>
     </row>
-    <row r="17" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="39" t="s">
         <v>73</v>
       </c>
@@ -2455,7 +2301,7 @@
       </c>
       <c r="J17" s="41"/>
     </row>
-    <row r="18" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="39" t="s">
         <v>114</v>
       </c>
@@ -2483,7 +2329,7 @@
       </c>
       <c r="J18" s="41"/>
     </row>
-    <row r="19" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="39" t="s">
         <v>78</v>
       </c>
@@ -2511,7 +2357,7 @@
       </c>
       <c r="J19" s="46"/>
     </row>
-    <row r="20" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
         <v>95</v>
       </c>
@@ -2539,7 +2385,7 @@
       </c>
       <c r="J20" s="46"/>
     </row>
-    <row r="21" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="39" t="s">
         <v>122</v>
       </c>
@@ -2567,7 +2413,7 @@
       </c>
       <c r="J21" s="46"/>
     </row>
-    <row r="22" spans="1:10" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" s="23" customFormat="1" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="39" t="s">
         <v>123</v>
       </c>
@@ -2595,7 +2441,7 @@
       </c>
       <c r="J22" s="41"/>
     </row>
-    <row r="23" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="39" t="s">
         <v>79</v>
       </c>
@@ -2623,7 +2469,7 @@
       </c>
       <c r="J23" s="41"/>
     </row>
-    <row r="24" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="39" t="s">
         <v>96</v>
       </c>
@@ -2651,7 +2497,7 @@
       </c>
       <c r="J24" s="41"/>
     </row>
-    <row r="25" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
         <v>124</v>
       </c>
@@ -2679,7 +2525,7 @@
       </c>
       <c r="J25" s="41"/>
     </row>
-    <row r="26" spans="1:10" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" s="23" customFormat="1" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="39" t="s">
         <v>125</v>
       </c>
@@ -2735,7 +2581,7 @@
       </c>
       <c r="J27" s="41"/>
     </row>
-    <row r="28" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="39" t="s">
         <v>81</v>
       </c>
@@ -2756,14 +2602,14 @@
         <v>24</v>
       </c>
       <c r="H28" s="41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I28" s="41" t="s">
         <v>135</v>
       </c>
       <c r="J28" s="41"/>
     </row>
-    <row r="29" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="39" t="s">
         <v>82</v>
       </c>
@@ -2784,14 +2630,14 @@
         <v>24</v>
       </c>
       <c r="H29" s="41" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I29" s="41" t="s">
         <v>137</v>
       </c>
       <c r="J29" s="41"/>
     </row>
-    <row r="30" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="39" t="s">
         <v>83</v>
       </c>
@@ -2819,7 +2665,7 @@
       </c>
       <c r="J30" s="41"/>
     </row>
-    <row r="31" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="39" t="s">
         <v>84</v>
       </c>
@@ -2849,7 +2695,7 @@
       </c>
       <c r="J31" s="41"/>
     </row>
-    <row r="32" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="39" t="s">
         <v>85</v>
       </c>
@@ -2877,7 +2723,7 @@
       </c>
       <c r="J32" s="41"/>
     </row>
-    <row r="33" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="39" t="s">
         <v>86</v>
       </c>
@@ -2905,7 +2751,7 @@
       </c>
       <c r="J33" s="41"/>
     </row>
-    <row r="34" spans="1:10" s="23" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" s="23" customFormat="1" ht="60" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="39" t="s">
         <v>87</v>
       </c>
@@ -3163,7 +3009,7 @@
       </c>
       <c r="J42" s="41"/>
     </row>
-    <row r="43" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="39" t="s">
         <v>100</v>
       </c>
@@ -3186,14 +3032,14 @@
         <v>34</v>
       </c>
       <c r="H43" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I43" s="41" t="s">
         <v>171</v>
       </c>
       <c r="J43" s="41"/>
     </row>
-    <row r="44" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="39" t="s">
         <v>160</v>
       </c>
@@ -3216,14 +3062,14 @@
         <v>34</v>
       </c>
       <c r="H44" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I44" s="41" t="s">
         <v>172</v>
       </c>
       <c r="J44" s="41"/>
     </row>
-    <row r="45" spans="1:10" s="23" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" s="23" customFormat="1" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="39" t="s">
         <v>161</v>
       </c>
@@ -3244,14 +3090,14 @@
         <v>34</v>
       </c>
       <c r="H45" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I45" s="41" t="s">
         <v>173</v>
       </c>
       <c r="J45" s="41"/>
     </row>
-    <row r="46" spans="1:10" s="23" customFormat="1" ht="90" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" s="23" customFormat="1" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="39" t="s">
         <v>162</v>
       </c>
@@ -3272,7 +3118,7 @@
         <v>34</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="I46" s="41" t="s">
         <v>174</v>
@@ -3375,7 +3221,7 @@
         <v>27</v>
       </c>
       <c r="E50" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F50" s="43" t="s">
         <v>26</v>
@@ -3403,7 +3249,7 @@
         <v>27</v>
       </c>
       <c r="E51" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F51" s="43" t="s">
         <v>26</v>
@@ -3431,7 +3277,7 @@
         <v>27</v>
       </c>
       <c r="E52" s="42" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F52" s="43" t="s">
         <v>26</v>
@@ -3465,7 +3311,7 @@
         <v>26</v>
       </c>
       <c r="G53" s="41" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H53" s="41" t="s">
         <v>193</v>
@@ -3644,24 +3490,30 @@
       <c r="J68" s="38"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:J53"/>
+  <autoFilter ref="A2:J53">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="04.12.2014"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <dataConsolidate/>
   <mergeCells count="1">
     <mergeCell ref="A1:C1"/>
   </mergeCells>
   <conditionalFormatting sqref="D66:E68 D55:E64 D3:D54 E3:E55">
-    <cfRule type="containsText" dxfId="31" priority="18" operator="containsText" text="Not Applicable">
+    <cfRule type="containsText" dxfId="3" priority="18" operator="containsText" text="Not Applicable">
       <formula>NOT(ISERROR(SEARCH("Not Applicable",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="19" operator="containsText" text="Failed">
+    <cfRule type="containsText" dxfId="2" priority="19" operator="containsText" text="Failed">
       <formula>NOT(ISERROR(SEARCH("Failed",D3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="29" priority="20" operator="containsText" text="Passed">
+    <cfRule type="containsText" dxfId="1" priority="20" operator="containsText" text="Passed">
       <formula>NOT(ISERROR(SEARCH("Passed",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D66:E68 D55:E64 D3:D54 E3:E55">
-    <cfRule type="containsText" dxfId="28" priority="17" operator="containsText" text="Block">
+    <cfRule type="containsText" dxfId="0" priority="17" operator="containsText" text="Block">
       <formula>NOT(ISERROR(SEARCH("Block",D3)))</formula>
     </cfRule>
   </conditionalFormatting>
